--- a/Exposiciones/S1M12020_Exposiciones.xlsx
+++ b/Exposiciones/S1M12020_Exposiciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="4905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -729,8 +729,8 @@
   <dimension ref="A2:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
+      <pane ySplit="7" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,16 +986,30 @@
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="24"/>
+      <c r="G15" s="20">
+        <v>7</v>
+      </c>
+      <c r="H15" s="22">
+        <v>10</v>
+      </c>
+      <c r="I15" s="22">
+        <v>9</v>
+      </c>
+      <c r="J15" s="22">
+        <v>4</v>
+      </c>
+      <c r="K15" s="22">
+        <v>4</v>
+      </c>
+      <c r="L15" s="22">
+        <v>2</v>
+      </c>
+      <c r="M15" s="24">
+        <v>3</v>
+      </c>
       <c r="N15" s="24">
         <f>SUM(G15:M15)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -1007,13 +1021,27 @@
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="24"/>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+      <c r="L16" s="22">
+        <v>0</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0</v>
+      </c>
       <c r="N16" s="24">
         <f>SUM(G16:M16)</f>
         <v>0</v>
@@ -1028,16 +1056,30 @@
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="24"/>
+      <c r="G17" s="20">
+        <v>7</v>
+      </c>
+      <c r="H17" s="22">
+        <v>10</v>
+      </c>
+      <c r="I17" s="22">
+        <v>9</v>
+      </c>
+      <c r="J17" s="22">
+        <v>4</v>
+      </c>
+      <c r="K17" s="22">
+        <v>4</v>
+      </c>
+      <c r="L17" s="22">
+        <v>2</v>
+      </c>
+      <c r="M17" s="24">
+        <v>3</v>
+      </c>
       <c r="N17" s="24">
         <f>SUM(G17:M17)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -2079,16 +2121,30 @@
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="24"/>
+      <c r="G77" s="20">
+        <v>5</v>
+      </c>
+      <c r="H77" s="22">
+        <v>10</v>
+      </c>
+      <c r="I77" s="22">
+        <v>9</v>
+      </c>
+      <c r="J77" s="22">
+        <v>4</v>
+      </c>
+      <c r="K77" s="22">
+        <v>4</v>
+      </c>
+      <c r="L77" s="22">
+        <v>3</v>
+      </c>
+      <c r="M77" s="24">
+        <v>3</v>
+      </c>
       <c r="N77" s="24">
         <f>SUM(G77:M77)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2099,16 +2155,30 @@
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="24"/>
+      <c r="G78" s="20">
+        <v>5</v>
+      </c>
+      <c r="H78" s="22">
+        <v>10</v>
+      </c>
+      <c r="I78" s="22">
+        <v>9</v>
+      </c>
+      <c r="J78" s="22">
+        <v>4</v>
+      </c>
+      <c r="K78" s="22">
+        <v>4</v>
+      </c>
+      <c r="L78" s="22">
+        <v>3</v>
+      </c>
+      <c r="M78" s="24">
+        <v>3</v>
+      </c>
       <c r="N78" s="24">
         <f t="shared" ref="N78:N80" si="1">SUM(G78:M78)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2119,16 +2189,30 @@
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="24"/>
+      <c r="G79" s="20">
+        <v>5</v>
+      </c>
+      <c r="H79" s="22">
+        <v>10</v>
+      </c>
+      <c r="I79" s="22">
+        <v>9</v>
+      </c>
+      <c r="J79" s="22">
+        <v>4</v>
+      </c>
+      <c r="K79" s="22">
+        <v>4</v>
+      </c>
+      <c r="L79" s="22">
+        <v>3</v>
+      </c>
+      <c r="M79" s="24">
+        <v>3</v>
+      </c>
       <c r="N79" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2140,16 +2224,30 @@
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="24"/>
+      <c r="G80" s="20">
+        <v>5</v>
+      </c>
+      <c r="H80" s="22">
+        <v>10</v>
+      </c>
+      <c r="I80" s="22">
+        <v>9</v>
+      </c>
+      <c r="J80" s="22">
+        <v>4</v>
+      </c>
+      <c r="K80" s="22">
+        <v>4</v>
+      </c>
+      <c r="L80" s="22">
+        <v>3</v>
+      </c>
+      <c r="M80" s="24">
+        <v>3</v>
+      </c>
       <c r="N80" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -2583,16 +2681,30 @@
       <c r="D105" s="22"/>
       <c r="E105" s="22"/>
       <c r="F105" s="22"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
-      <c r="K105" s="22"/>
-      <c r="L105" s="22"/>
-      <c r="M105" s="24"/>
+      <c r="G105" s="20">
+        <v>7</v>
+      </c>
+      <c r="H105" s="22">
+        <v>10</v>
+      </c>
+      <c r="I105" s="22">
+        <v>10</v>
+      </c>
+      <c r="J105" s="22">
+        <v>4</v>
+      </c>
+      <c r="K105" s="22">
+        <v>4</v>
+      </c>
+      <c r="L105" s="22">
+        <v>3</v>
+      </c>
+      <c r="M105" s="24">
+        <v>2</v>
+      </c>
       <c r="N105" s="24">
         <f>SUM(G105:M105)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2604,16 +2716,30 @@
       <c r="D106" s="22"/>
       <c r="E106" s="22"/>
       <c r="F106" s="22"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="22"/>
-      <c r="L106" s="22"/>
-      <c r="M106" s="24"/>
+      <c r="G106" s="20">
+        <v>7</v>
+      </c>
+      <c r="H106" s="22">
+        <v>10</v>
+      </c>
+      <c r="I106" s="22">
+        <v>10</v>
+      </c>
+      <c r="J106" s="22">
+        <v>4</v>
+      </c>
+      <c r="K106" s="22">
+        <v>4</v>
+      </c>
+      <c r="L106" s="22">
+        <v>3</v>
+      </c>
+      <c r="M106" s="24">
+        <v>2</v>
+      </c>
       <c r="N106" s="24">
         <f t="shared" ref="N106" si="3">SUM(G106:M106)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
